--- a/Final Paper/Individual Sections/Data/Images/Round_by_round_counts.xlsx
+++ b/Final Paper/Individual Sections/Data/Images/Round_by_round_counts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23200" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="10540" yWindow="0" windowWidth="12660" windowHeight="14780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
